--- a/参照表/色彩效果参照表.xlsx
+++ b/参照表/色彩效果参照表.xlsx
@@ -1,48 +1,502 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="26655" windowHeight="15735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>子颜色</t>
+  </si>
+  <si>
+    <t>心理含义</t>
+  </si>
+  <si>
+    <t>心理含义对应人群数据占比</t>
+  </si>
+  <si>
+    <t>对应说明</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>无边无际，大</t>
+  </si>
+  <si>
+    <t>信任与忠诚</t>
+  </si>
+  <si>
+    <t>蓝宝石象征新人与忠诚</t>
+  </si>
+  <si>
+    <t>渴望</t>
+  </si>
+  <si>
+    <t>渴望与遥远有关</t>
+  </si>
+  <si>
+    <t>幻想</t>
+  </si>
+  <si>
+    <t>象征乌托邦式，遥不可及的理想</t>
+  </si>
+  <si>
+    <t>凉</t>
+  </si>
+  <si>
+    <t>蓝色赋予冷的感觉，同样又是一种拒人千里之外的感觉，代表无情、傲慢、冷漠</t>
+  </si>
+  <si>
+    <t>冷暖</t>
+  </si>
+  <si>
+    <t>透视效果</t>
+  </si>
+  <si>
+    <t>深浅</t>
+  </si>
+  <si>
+    <t>暖色</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>深色</t>
+  </si>
+  <si>
+    <t>冷色</t>
+  </si>
+  <si>
+    <t>远</t>
+  </si>
+  <si>
+    <t>浅色</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0523B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -50,22 +504,471 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="000523B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -355,50 +1258,283 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="I22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/参照表/色彩效果参照表.xlsx
+++ b/参照表/色彩效果参照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26655" windowHeight="15735"/>
+    <workbookView windowWidth="26895" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>颜色</t>
   </si>
@@ -33,6 +33,9 @@
     <t>对应说明</t>
   </si>
   <si>
+    <t>典故</t>
+  </si>
+  <si>
     <t>蓝色</t>
   </si>
   <si>
@@ -51,16 +54,112 @@
     <t>渴望与遥远有关</t>
   </si>
   <si>
+    <t>戴安娜王妃的蓝色宝石、蓝色的渴望之花</t>
+  </si>
+  <si>
     <t>幻想</t>
   </si>
   <si>
     <t>象征乌托邦式，遥不可及的理想</t>
   </si>
   <si>
+    <t>蓝色消息、蓝色童话、蓝色的大衣</t>
+  </si>
+  <si>
     <t>凉</t>
   </si>
   <si>
     <t>蓝色赋予冷的感觉，同样又是一种拒人千里之外的感觉，代表无情、傲慢、冷漠</t>
+  </si>
+  <si>
+    <t>蓝色玻璃的物品像是处于悲伤的光线里</t>
+  </si>
+  <si>
+    <t>好感</t>
+  </si>
+  <si>
+    <t>友谊</t>
+  </si>
+  <si>
+    <t>遥远</t>
+  </si>
+  <si>
+    <t>天空中蓝色越深，代表离地面越远</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>寂静</t>
+  </si>
+  <si>
+    <t>Blue hour</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>现代男人的象征意义是蓝色，过去是红色</t>
+  </si>
+  <si>
+    <t>客观</t>
+  </si>
+  <si>
+    <t>蓝色是代表工作及精神的主要颜色</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>血和生命</t>
+  </si>
+  <si>
+    <t>爱情</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>性</t>
+  </si>
+  <si>
+    <t>性爱</t>
+  </si>
+  <si>
+    <t>爱+性，变为紫色</t>
+  </si>
+  <si>
+    <t>诱惑</t>
+  </si>
+  <si>
+    <t>进攻性</t>
+  </si>
+  <si>
+    <t>炽热</t>
+  </si>
+  <si>
+    <t>欲望</t>
+  </si>
+  <si>
+    <t>大声</t>
+  </si>
+  <si>
+    <t>临近</t>
+  </si>
+  <si>
+    <t>喧闹</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>贵族富有</t>
+  </si>
+  <si>
+    <t>纯正的红色染料很昂贵</t>
   </si>
   <si>
     <t>冷暖</t>
@@ -100,7 +199,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,11 +220,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -272,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,7 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,12 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,16 +632,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,19 +685,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -587,10 +695,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -696,51 +804,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,98 +855,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,64 +960,115 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1264,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1277,227 +1436,923 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="13">
         <v>0.44</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13">
         <v>0.3</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="13">
         <v>0.19</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13">
         <v>0.51</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="I21" s="21" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="4:11">
-      <c r="D22" s="9" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="15" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="D23" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="I23" s="15" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27">
+        <v>0.58</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27">
+        <v>0.51</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="23"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="3:22">
+      <c r="C35" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="111">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:V1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:V2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:V3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:V4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:V5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:O6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:V13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:V14"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:V22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:V25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:V26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:V27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:V29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:V30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:V31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:V35"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B31:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/参照表/色彩效果参照表.xlsx
+++ b/参照表/色彩效果参照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26895" windowHeight="13080"/>
+    <workbookView windowWidth="19995" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>颜色</t>
   </si>
@@ -141,6 +141,9 @@
     <t>炽热</t>
   </si>
   <si>
+    <t>自由、工人运动的红色旗帜</t>
+  </si>
+  <si>
     <t>欲望</t>
   </si>
   <si>
@@ -160,6 +163,30 @@
   </si>
   <si>
     <t>纯正的红色染料很昂贵</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>红绿灯</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>监视</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>吸引力</t>
+  </si>
+  <si>
+    <t>兴奋</t>
+  </si>
+  <si>
+    <t>圆形</t>
   </si>
   <si>
     <t>冷暖</t>
@@ -608,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -699,6 +726,81 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -810,7 +912,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,7 +942,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,28 +960,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,10 +990,10 @@
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,7 +1067,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,16 +1088,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,17 +1106,83 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,43 +1190,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:V35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="A22:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1462,15 +1588,15 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="4" t="s">
@@ -1485,20 +1611,20 @@
       <c r="F2" s="9"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="11"/>
@@ -1515,20 +1641,20 @@
       <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="11"/>
@@ -1545,22 +1671,22 @@
       <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="26" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="11"/>
@@ -1577,22 +1703,22 @@
       <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="26" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="11"/>
@@ -1609,639 +1735,1044 @@
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="26" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="D7" s="7"/>
+      <c r="E7" s="13">
         <v>0.32</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16">
+      <c r="D8" s="7"/>
+      <c r="E8" s="13">
         <v>0.3</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13">
         <v>0.68</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17">
         <v>0.21</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
+      <c r="D11" s="7"/>
+      <c r="E11" s="13">
         <v>0.25</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="17" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="D12" s="7"/>
+      <c r="E12" s="13">
         <v>0.22</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="D13" s="7"/>
+      <c r="E13" s="13">
         <v>0.26</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16">
+      <c r="D14" s="16"/>
+      <c r="E14" s="13">
         <v>0.24</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16">
+      <c r="D22" s="7"/>
+      <c r="E22" s="13">
         <v>0.9</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="15" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16">
+      <c r="D23" s="7"/>
+      <c r="E23" s="13">
         <v>0.61</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16">
+      <c r="D24" s="7"/>
+      <c r="E24" s="13">
         <v>0.6</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="15" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16">
+      <c r="D25" s="7"/>
+      <c r="E25" s="13">
         <v>0.53</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16">
+      <c r="D26" s="7"/>
+      <c r="E26" s="13">
         <v>0.63</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="26" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16">
+      <c r="D27" s="7"/>
+      <c r="E27" s="13">
         <v>0.37</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27">
+      <c r="D28" s="33"/>
+      <c r="E28" s="35">
         <v>0.58</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27">
+      <c r="D29" s="33"/>
+      <c r="E29" s="35">
         <v>0.51</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="35">
         <v>0.39</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="23"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="35">
         <v>0.31</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="35">
         <v>0.33</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="27">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35">
         <v>0.18</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="35">
         <v>0.2</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="3:22">
-      <c r="C35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="26" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="29" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31" t="s">
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="29"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+    </row>
+    <row r="54" ht="15" spans="1:8">
+      <c r="A54" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
       <c r="F55" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H56" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="169">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="P1:V1"/>
@@ -2293,6 +2824,27 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:O14"/>
     <mergeCell ref="P14:V14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:V16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:V17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:V19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:V21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:O22"/>
@@ -2335,14 +2887,48 @@
     <mergeCell ref="P31:V31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:V32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:V33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:V34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="H35:O35"/>
     <mergeCell ref="P35:V35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:V36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P38:V38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="P39:V39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="P40:V40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="P41:V41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="P42:V42"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="B55:C55"/>
@@ -2350,9 +2936,12 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A42"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B42"/>
+    <mergeCell ref="C15:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
